--- a/данные.xlsx
+++ b/данные.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
   </bookViews>
   <sheets>
     <sheet name="приоритеты" sheetId="1" state="visible" r:id="rId1"/>
@@ -486,27 +486,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Алгебра</t>
-        </is>
+      <c r="A1" t="n">
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>6</v>
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>-5</v>
@@ -526,7 +536,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>-5</v>
@@ -546,7 +556,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B4" t="n">
         <v>-5</v>
@@ -585,26 +595,116 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>-5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Алгебра</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -616,27 +716,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Геометрия</t>
-        </is>
+      <c r="A1" t="n">
+        <v>4</v>
       </c>
       <c r="B1" t="n">
-        <v>6</v>
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="B2" t="n">
         <v>-5</v>
@@ -715,23 +825,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>-5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Геометрия</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -744,107 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="13"/>
+    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -856,125 +856,225 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Математический анализ</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>-5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Математический анализ</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/данные.xlsx
+++ b/данные.xlsx
@@ -3,14 +3,26 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="2" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="667" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
   </bookViews>
   <sheets>
     <sheet name="приоритеты" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Боря" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Вася" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Петя" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="порядок" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="порядок" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Володя" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ЮрНик" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Гурам" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Полина" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ЕВ" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Маша" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Инна" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Слава" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Соня" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Азамат" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Царь" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Катя" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Лена" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Настя" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Денис" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -50,10 +62,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -421,10 +434,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -432,49 +445,1419 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Петя</t>
+          <t>Володя</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>#3333aa</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>0.9</v>
+          <t>#aa5555</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>Гурам</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#33aa33</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1.5</v>
+          <t>#5555aa</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1.010</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Боря</t>
+          <t>Полина</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#aa3333</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="4"/>
+          <t>#55aaaa</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1.011</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Настя</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>#657875</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Азамат</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>#792300</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1.027</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>#646460</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1.028</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ЮрНик</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>#55aa55</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.031</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ЕВ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>#aa55aa</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1.034</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Царь</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>#123456</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1.039</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>#aaaa55</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.046</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Инна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>#aaaaaa</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1.046</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Слава</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>#555555</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1.056</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Катя</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>#afedbc</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.056</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Соня</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>#328716</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1.072</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Лена</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>#f12a45</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1.074</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Слава1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Слава2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Соня1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Соня2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Соня3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Азамат1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Азамат2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Царь1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Царь2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Катя1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Катя2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Катя3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Лена1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Лена2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Настя1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Настя2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Настя3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Денис1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Денис2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Денис3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -486,225 +1869,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B1" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C1" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D1" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E1" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F1" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Алгебра</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12"/>
+    <row r="1"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -718,24 +1891,24 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="B1" t="n">
         <v>-5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="n">
         <v>-5</v>
@@ -749,13 +1922,13 @@
         <v>-5</v>
       </c>
       <c r="B2" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>-5</v>
       </c>
       <c r="D2" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>-5</v>
@@ -766,7 +1939,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>-5</v>
@@ -775,13 +1948,13 @@
         <v>-5</v>
       </c>
       <c r="D3" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -827,21 +2000,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Геометрия</t>
+          <t>Володя1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Геометрия</t>
+          <t>Володя2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8"/>
@@ -856,225 +2029,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Математический анализ</t>
+          <t>ЮрНик1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ЮрНик2</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ЮрНик3</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1086,32 +2179,695 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Боря Алгебра 6</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>подряд</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Петя Математический анализ 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+      <c r="A1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Гурам</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Полина</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ЕВ1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ЕВ2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ЕВ3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Маша1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Маша2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Маша3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Инна1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Инна2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/данные.xlsx
+++ b/данные.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="2" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="667" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
+    <workbookView activeTab="27" autoFilterDateGrouping="1" firstSheet="12" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="667" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
   </bookViews>
   <sheets>
     <sheet name="приоритеты" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,6 +23,17 @@
     <sheet name="Лена" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Настя" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Денис" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Гриц" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="ОК" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Ася" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Резеда" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Таня" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Крок" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Оля" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Коля" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Андрей" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Алекс" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Н астя" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -62,11 +73,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -434,10 +446,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -450,29 +462,39 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>#aa5555</t>
+          <t>#66ccff</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
           <t>1.001</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Гурам</t>
+          <t>Гриц</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#5555aa</t>
+          <t>#00ff00</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
           <t>1.010</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
@@ -484,220 +506,522 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#55aaaa</t>
+          <t>#671470</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
           <t>1.011</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>?</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Настя</t>
+          <t>ОК</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#657875</t>
+          <t>#969696</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1.023</t>
+          <t>1.012</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Азамат</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#792300</t>
+          <t>#99cc00</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1.027</t>
+          <t>1.012</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Денис</t>
+          <t>Настя</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#646460</t>
+          <t>#cc00ff</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1.028</t>
+          <t>1.023</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ЮрНик</t>
+          <t>Резеда</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#55aa55</t>
+          <t>#ffc000</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1.031</t>
+          <t>1.023</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ЕВ</t>
+          <t>Азамат</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#aa55aa</t>
+          <t>#92d050</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1.034</t>
+          <t>1.027</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>?</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Царь</t>
+          <t>Таня</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#123456</t>
+          <t>#008000</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1.039</t>
+          <t>1.027</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Маша</t>
+          <t>Денис</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#aaaa55</t>
+          <t>#333399</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.028</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Инна</t>
+          <t>Оля</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#aaaaaa</t>
+          <t>#ffff99</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.029</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Слава</t>
+          <t>ЮрНик</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#555555</t>
+          <t>#808000</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.031</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Катя</t>
+          <t>ЕВ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#afedbc</t>
+          <t>#ffffff</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1.056</t>
+          <t>1.034</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Соня</t>
+          <t>Царь</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#328716</t>
+          <t>#991500</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1.072</t>
+          <t>1.039</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>+</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>#ff8080</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1.046</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Инна</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>#ff99cc</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.046</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Крок</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>#339966</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>1.047</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Слава</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>#996633</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1.056</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Катя</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>#ff99cc</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.056</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Н астя</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>#ff0066</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>1.057</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Соня</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>#f9958b</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1.072</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Лена</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>#f12a45</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>#c0c0c0</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>1.074</t>
         </is>
       </c>
-    </row>
-    <row r="16"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ася</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>#ffff00</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1.087</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Коля</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>#0066ff</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1.087</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Гурам</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>#ff6600</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1.090</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Алекс</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>#00ffff</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1.090</t>
+        </is>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -709,10 +1033,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -820,24 +1144,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Слава1</t>
+          <t>физика</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Слава2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -849,10 +1163,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -960,34 +1274,44 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Соня1</t>
+          <t>Словесность1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Соня2</t>
+          <t>Словесность2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Соня3</t>
+          <t>Русский язык1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Русский язык2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -999,10 +1323,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1110,24 +1434,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Азамат1</t>
+          <t>Биология</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Азамат2</t>
+          <t>Биология</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1142,7 +1476,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1250,21 +1584,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Царь1</t>
+          <t>Литература</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Царь2</t>
+          <t>Литература</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8"/>
@@ -1282,7 +1616,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1390,31 +1724,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Катя1</t>
+          <t>История1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Катя2</t>
+          <t>История2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Катя3</t>
+          <t>История</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9"/>
@@ -1429,10 +1763,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1540,24 +1874,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Лена1</t>
+          <t>Технология</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Лена2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1569,10 +1893,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1680,7 +2004,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Настя1</t>
+          <t>История1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1690,24 +2014,44 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Настя2</t>
+          <t>История1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Настя3</t>
+          <t>История</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>История2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>История2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1719,10 +2063,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1830,17 +2174,187 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Денис1</t>
+          <t>Геометрия</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Денис2</t>
+          <t>Геометрия</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Матан</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>спк матан</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>спк матан</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>География</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1850,14 +2364,164 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Денис3</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1869,15 +2533,1419 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Соня Русский язык1 11</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>подряд</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Соня Русский язык2 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>подряд</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ася Диспут2 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Диспут1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Диспут2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Английский</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Английский</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Algebra</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Геометрия1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Алгоритмика</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Алгебра1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Алгебра2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Геометрия2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Алгебра1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Геометрия</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Алгебра2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Алгебра</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>География</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Алгебра</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Алгебра</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Геометрия</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Английский</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1889,10 +3957,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2000,24 +4068,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Володя1</t>
+          <t>Алгебра</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Володя2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2029,10 +4087,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2140,7 +4198,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ЮрНик1</t>
+          <t>Физика</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2150,24 +4208,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ЮрНик2</t>
+          <t>Физика</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ЮрНик3</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2179,10 +4227,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2290,14 +4338,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Гурам</t>
+          <t>Английский</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Английский</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Английский</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2309,10 +4377,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2417,17 +4485,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Полина</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7"/>
+    <row r="6"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2442,7 +4500,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2550,7 +4608,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ЕВ1</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2560,7 +4618,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ЕВ2</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2570,7 +4628,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ЕВ3</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2592,7 +4650,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="A6" sqref="A6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2700,31 +4758,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Маша1</t>
+          <t>Словесность1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Маша2</t>
+          <t>Словесность2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Маша3</t>
+          <t>Русский язык</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9"/>
@@ -2739,10 +4797,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2850,7 +4908,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Инна1</t>
+          <t>Словесность1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2860,14 +4918,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Инна2</t>
+          <t>Словесность2</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Русский язык</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8"/>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/данные.xlsx
+++ b/данные.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="27" autoFilterDateGrouping="1" firstSheet="12" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="667" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
+    <workbookView activeTab="11" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="667" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
   </bookViews>
   <sheets>
     <sheet name="приоритеты" sheetId="1" state="visible" r:id="rId1"/>
@@ -448,8 +448,8 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1024,6 +1024,7 @@
     <row r="27"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1036,7 +1037,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1046,7 +1047,7 @@
         <v>-5</v>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C1" t="n">
         <v>0</v>
@@ -1058,15 +1059,15 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1078,12 +1079,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B3" t="n">
         <v>-5</v>
@@ -1098,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -1163,10 +1164,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1208,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -1228,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -1302,16 +1303,216 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Русский язык2</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1323,17 +1524,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B1" t="n">
         <v>-5</v>
@@ -1348,12 +1549,12 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B2" t="n">
         <v>-5</v>
@@ -1368,12 +1569,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B3" t="n">
         <v>-5</v>
@@ -1388,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -1442,26 +1643,126 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Биология</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Биология</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B13" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="14"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1476,7 +1777,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1486,7 +1787,7 @@
         <v>-5</v>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C1" t="n">
         <v>-5</v>
@@ -1498,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -1506,7 +1807,7 @@
         <v>-5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C2" t="n">
         <v>-5</v>
@@ -1518,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -1526,7 +1827,7 @@
         <v>-5</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C3" t="n">
         <v>-5</v>
@@ -1538,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -1613,10 +1914,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1638,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -1658,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -1678,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +2052,107 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1766,7 +2167,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1788,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -1808,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -1828,7 +2229,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -1893,10 +2294,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2032,26 +2433,126 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>История2</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>История2</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="11"/>
+    <row r="16"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2066,17 +2567,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C1" t="n">
         <v>0</v>
@@ -2099,24 +2600,24 @@
         <v>-5</v>
       </c>
       <c r="C2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2194,7 +2695,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Матан</t>
+          <t>Мататематический анализ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2233,10 +2734,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F9" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2258,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -2278,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -2298,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -2372,26 +2873,126 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Физика</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>СР</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B15" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="11"/>
+    <row r="16"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2406,7 +3007,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2428,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -2448,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -2468,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -2536,7 +3137,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2590,7 +3191,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2612,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -2632,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -2652,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -2747,10 +3348,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H9"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2772,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -2792,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -2812,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -2875,7 +3476,107 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8"/>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2887,10 +3588,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2912,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -2932,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -2952,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -3025,7 +3726,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3037,10 +3838,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F5"/>
+      <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -3062,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -3082,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -3102,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -3176,16 +3977,216 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Химия</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3200,7 +4201,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F5"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -3222,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -3242,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -3262,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -3377,10 +4378,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F5"/>
+      <selection activeCell="F10" sqref="F10:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -3402,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -3422,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -3442,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -3525,7 +4526,107 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3540,7 +4641,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F5"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -3562,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -3582,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -3602,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -3677,17 +4778,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F5"/>
+      <selection activeCell="F7" sqref="F7:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B1" t="n">
         <v>-5</v>
@@ -3702,15 +4803,15 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3722,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -3730,7 +4831,7 @@
         <v>-5</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3742,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -3796,26 +4897,126 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B13" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="14"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3829,15 +5030,15 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B1" t="n">
         <v>-5</v>
@@ -3852,15 +5053,15 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3872,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -3880,7 +5081,7 @@
         <v>-5</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3892,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -3960,7 +5161,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -3990,7 +5191,7 @@
         <v>-5</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="C2" t="n">
         <v>-5</v>
@@ -4007,7 +5208,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="B3" t="n">
         <v>-5</v>
@@ -4090,17 +5291,17 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="B1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="C1" t="n">
         <v>-5</v>
@@ -4117,10 +5318,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="C2" t="n">
         <v>-5</v>
@@ -4137,10 +5338,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="C3" t="n">
         <v>-5</v>
@@ -4227,10 +5428,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -4346,26 +5547,126 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Английский</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Английский</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B13" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="14"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4647,10 +5948,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B8"/>
+      <selection activeCell="F9" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -4672,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2">
@@ -4692,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -4712,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -4785,7 +6086,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4797,10 +6198,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -4935,7 +6336,107 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/данные.xlsx
+++ b/данные.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="667" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
+    <workbookView activeTab="28" autoFilterDateGrouping="1" firstSheet="13" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="670" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
   </bookViews>
   <sheets>
     <sheet name="приоритеты" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="Андрей" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="Алекс" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Н астя" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="СПК" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -446,10 +447,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -457,286 +458,221 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Володя</t>
+          <t>Гриц</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>#66ccff</t>
+          <t>#00ff00</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>1.001</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.100</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Гриц</t>
+          <t>Алекс</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#00ff00</t>
+          <t>#00ffff</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>1.010</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.090</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Полина</t>
+          <t>Гурам</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#671470</t>
+          <t>#ff6600</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>1.011</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>?</t>
+          <t>1.090</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ОК</t>
+          <t>Коля</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#969696</t>
+          <t>#0066ff</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1.012</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.087</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Ася</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#99cc00</t>
+          <t>#ffff00</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1.012</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.087</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Настя</t>
+          <t>Лена</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#cc00ff</t>
+          <t>#c0c0c0</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1.023</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.074</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Резеда</t>
+          <t>Соня</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#ffc000</t>
+          <t>#f9958b</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1.023</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.072</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Азамат</t>
+          <t>Н астя</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#92d050</t>
+          <t>#ff0066</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1.027</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>?</t>
+          <t>1.057</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Таня</t>
+          <t>Катя</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#008000</t>
+          <t>#ff99cc</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1.027</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.056</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Денис</t>
+          <t>Слава</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#333399</t>
+          <t>#996633</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1.028</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.056</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Оля</t>
+          <t>Крок</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#ffff99</t>
+          <t>#339966</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1.029</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.047</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ЮрНик</t>
+          <t>Инна</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#808000</t>
+          <t>#ff99cc</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1.031</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.046</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ЕВ</t>
+          <t>Маша</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#ffffff</t>
+          <t>#ff8080</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1.034</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.046</t>
         </is>
       </c>
     </row>
@@ -756,272 +692,229 @@
           <t>1.039</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Маша</t>
+          <t>ЕВ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#ff8080</t>
+          <t>#ffffff</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1.046</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.034</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Инна</t>
+          <t>ЮрНик</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#ff99cc</t>
+          <t>#808000</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1.046</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.031</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Крок</t>
+          <t>Оля</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#339966</t>
+          <t>#ffff99</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1.047</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.029</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Слава</t>
+          <t>Денис</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#996633</t>
+          <t>#333399</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1.056</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.028</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Катя</t>
+          <t>Таня</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#ff99cc</t>
+          <t>#008000</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1.056</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.027</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Н астя</t>
+          <t>Азамат</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#ff0066</t>
+          <t>#92d050</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>1.057</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.027</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Соня</t>
+          <t>Настя</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#f9958b</t>
+          <t>#cc00ff</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1.072</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.023</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Лена</t>
+          <t>Резеда</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#c0c0c0</t>
+          <t>#ffc000</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1.074</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.023</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ася</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#ffff00</t>
+          <t>#99cc00</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1.087</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.012</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Коля</t>
+          <t>ОК</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#0066ff</t>
+          <t>#969696</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1.087</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.012</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Гурам</t>
+          <t>Полина</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#ff6600</t>
+          <t>#9999ff</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1.090</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>1.011</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Алекс</t>
+          <t>Володя</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#00ffff</t>
+          <t>#66ccff</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1.090</t>
-        </is>
-      </c>
-    </row>
-    <row r="27"/>
+          <t>1.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>СПК</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>#aaaaaa</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
@@ -1034,32 +927,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -1079,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -1099,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -1145,14 +1038,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>физика</t>
+          <t>физика1</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>физика2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1164,32 +1067,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -1209,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -1229,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -1285,234 +1188,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Словесность2</t>
+          <t>Русский Язык1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Русский язык1</t>
+          <t>Русский Язык2</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Русский язык2</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="20"/>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1524,37 +1217,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>-5</v>
@@ -1569,12 +1262,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>-5</v>
@@ -1589,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -1643,126 +1336,26 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Биология</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Биология</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="14"/>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1774,32 +1367,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -1819,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -1839,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -1895,14 +1488,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Литература</t>
+          <t>Истоиия1</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="8"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>История2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1914,32 +1517,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -1959,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -1979,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -2025,7 +1628,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>История1</t>
+          <t>История</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2035,124 +1638,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>История2</t>
+          <t>История</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>История</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14"/>
+    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2167,29 +1660,29 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -2209,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -2229,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -2294,7 +1787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -2304,19 +1797,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
         <v>-5</v>
@@ -2405,7 +1898,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>История1</t>
+          <t>6История1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2415,7 +1908,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>История1</t>
+          <t>8История1</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2425,7 +1918,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>История</t>
+          <t>10История1</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2433,126 +1926,36 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6История2</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8История2</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10История2</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>История2</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>История2</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2564,10 +1967,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2580,16 +1983,16 @@
         <v>-5</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -2600,16 +2003,16 @@
         <v>-5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2620,16 +2023,16 @@
         <v>-5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2683,46 +2086,246 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Мататематический анализ</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B18" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>спк матан</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>спк матан</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B20" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="11"/>
+    <row r="21"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2734,72 +2337,72 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -2836,10 +2439,10 @@
         <v>-5</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="F5" t="n">
-        <v>-5</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6">
@@ -2849,13 +2452,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>География</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2865,136 +2468,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Химия</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-3</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>География</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Физика1</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Физика2</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Физика</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>СР</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3007,29 +2531,29 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -3049,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -3069,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -3134,10 +2658,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -3145,7 +2669,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Соня Русский язык1 11</t>
+          <t>Денис Мататематический анализ 9</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3155,28 +2679,11 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Соня Русский язык2 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ася Диспут1 8</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>подряд</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ася Диспут2 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="3"/>
+          <t>Денис спк матан 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3188,32 +2695,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -3233,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -3253,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -3309,7 +2816,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Литература</t>
+          <t>МХК</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3323,7 +2830,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -3333,10 +2840,20 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="11"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3348,32 +2865,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -3390,10 +2907,10 @@
         <v>-5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -3413,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -3459,7 +2976,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Английский</t>
+          <t>Английский1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3469,7 +2986,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Английский</t>
+          <t>Английский1</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3477,106 +2994,26 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>-5</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Английский2</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Английский2</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3588,32 +3025,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -3633,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -3653,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -3706,127 +3143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Биология</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Биология</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14"/>
+    <row r="7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3838,32 +3155,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F17"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -3883,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -3903,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -3969,7 +3286,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Химия</t>
+          <t>Химия1</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3977,216 +3294,26 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Химия2</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Химия</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="20"/>
+    <row r="11"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4198,32 +3325,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -4240,10 +3367,10 @@
         <v>-5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -4260,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -4309,7 +3436,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algebra</t>
+          <t>Алгебра1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4319,7 +3446,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Геометрия1</t>
+          <t>Алгебра2</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4329,44 +3456,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Алгоритмика</t>
+          <t>Геометрия</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Алгебра1</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Алгебра2</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Геометрия2</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12"/>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4378,32 +3475,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F12"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -4423,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -4443,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -4519,7 +3616,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Алгебра</t>
+          <t>Алгебра1</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4527,106 +3624,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Алгебра2</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="15"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4638,32 +3645,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -4683,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -4703,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -4756,17 +3763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Проект</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8"/>
+    <row r="7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4778,32 +3775,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F9"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -4823,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -4843,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -4889,7 +3886,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Алгебра</t>
+          <t>Алгебра1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4897,126 +3894,66 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Геометрия</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Алгебра1</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Методология</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Методология</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Алгебра2</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Алгебра</t>
+          <t>Алгебра2</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Геометрия</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14"/>
+    <row r="13"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5028,72 +3965,72 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -5139,14 +4076,374 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Английский</t>
+          <t>Английский1</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Английский1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Английский2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>СПК</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>100</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>СПК</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5158,29 +4455,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
         <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
         <v>-5</v>
@@ -5223,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -5269,14 +4566,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Алгебра</t>
+          <t>Алгебра1</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Алгебра2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5288,29 +4595,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
         <v>-5</v>
@@ -5318,10 +4625,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="B2" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="C2" t="n">
         <v>-5</v>
@@ -5338,10 +4645,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="B3" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="C3" t="n">
         <v>-5</v>
@@ -5399,7 +4706,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Физика</t>
+          <t>Физика1</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5409,14 +4716,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Физика</t>
+          <t>Физика1</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="8"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Физика2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Физика2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5428,32 +4755,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -5473,7 +4800,7 @@
         <v>-5</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -5547,126 +4874,26 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>-5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Английский1</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>-5</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Английский2</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Английский</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Английский</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14"/>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5678,29 +4905,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
         <v>-5</v>
@@ -5786,7 +5013,17 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5798,29 +5035,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" t="n">
         <v>-5</v>
@@ -5828,19 +5065,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>-5</v>
@@ -5848,19 +5085,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>-5</v>
@@ -5936,7 +5173,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Физ-ра</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Физ-ра</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Физ-ра</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5948,32 +5215,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F11"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2">
@@ -5993,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -6013,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -6086,107 +5353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14"/>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6198,26 +5365,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" t="n">
         <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E1" t="n">
         <v>5</v>
@@ -6336,107 +5503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14"/>
+    <row r="9"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/данные.xlsx
+++ b/данные.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="28" autoFilterDateGrouping="1" firstSheet="13" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="670" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="670" visibility="visible" windowHeight="7340" windowWidth="19140" xWindow="0" yWindow="80"/>
   </bookViews>
   <sheets>
     <sheet name="приоритеты" sheetId="1" state="visible" r:id="rId1"/>
@@ -447,10 +447,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -466,7 +466,12 @@
           <t>#00ff00</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>1.100</t>
         </is>
@@ -483,7 +488,12 @@
           <t>#00ffff</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>1.090</t>
         </is>
@@ -500,7 +510,12 @@
           <t>#ff6600</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>1.090</t>
         </is>
@@ -517,7 +532,12 @@
           <t>#0066ff</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>1.087</t>
         </is>
@@ -534,7 +554,12 @@
           <t>#ffff00</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>1.087</t>
         </is>
@@ -551,7 +576,12 @@
           <t>#c0c0c0</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>1.074</t>
         </is>
@@ -568,7 +598,12 @@
           <t>#f9958b</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>1.072</t>
         </is>
@@ -585,7 +620,12 @@
           <t>#ff0066</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>1.057</t>
         </is>
@@ -602,7 +642,12 @@
           <t>#ff99cc</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>1.056</t>
         </is>
@@ -619,7 +664,12 @@
           <t>#996633</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>1.056</t>
         </is>
@@ -636,7 +686,12 @@
           <t>#339966</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>1.047</t>
         </is>
@@ -653,7 +708,12 @@
           <t>#ff99cc</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>1.046</t>
         </is>
@@ -670,7 +730,12 @@
           <t>#ff8080</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>1.046</t>
         </is>
@@ -687,7 +752,12 @@
           <t>#991500</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>1.039</t>
         </is>
@@ -704,7 +774,12 @@
           <t>#ffffff</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>1.034</t>
         </is>
@@ -721,7 +796,12 @@
           <t>#808000</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>1.031</t>
         </is>
@@ -738,7 +818,12 @@
           <t>#ffff99</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>1.029</t>
         </is>
@@ -755,7 +840,12 @@
           <t>#333399</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>1.028</t>
         </is>
@@ -772,7 +862,12 @@
           <t>#008000</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>1.027</t>
         </is>
@@ -789,7 +884,12 @@
           <t>#92d050</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>1.027</t>
         </is>
@@ -806,7 +906,12 @@
           <t>#cc00ff</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>1.023</t>
         </is>
@@ -823,7 +928,12 @@
           <t>#ffc000</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>1.023</t>
         </is>
@@ -840,7 +950,12 @@
           <t>#99cc00</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>1.012</t>
         </is>
@@ -857,7 +972,12 @@
           <t>#969696</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>1.012</t>
         </is>
@@ -874,7 +994,12 @@
           <t>#9999ff</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>1.011</t>
         </is>
@@ -891,7 +1016,12 @@
           <t>#66ccff</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>1.001</t>
         </is>
@@ -909,6 +1039,11 @@
         </is>
       </c>
       <c r="C27" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>1.001</t>
         </is>
@@ -4117,8 +4252,8 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
